--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AggressiVE_GITHUB\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA1973-2F6B-4672-B2FB-65F43F948F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA1932-488D-49C6-AF34-949A4BFB867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>input_regs</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>access_method</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,9 +407,10 @@
     <col min="4" max="4" width="12.90625" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +432,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,6 +457,9 @@
       </c>
       <c r="G2" t="b">
         <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -459,10 +469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D02E66-D43E-4A83-96A4-C72A2BD48F72}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +490,7 @@
     <col min="11" max="11" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,31 +501,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -525,8 +541,8 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -538,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -548,6 +564,12 @@
       </c>
       <c r="K2" t="b">
         <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -557,10 +579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7AC8F6-C58B-41AF-9015-A8D8BB77BE51}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,9 +590,12 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +605,20 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -590,6 +627,18 @@
       </c>
       <c r="C2" t="b">
         <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AggressiVE_GITHUB\AggressiVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA1932-488D-49C6-AF34-949A4BFB867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798BDF0-BCB2-4B6E-9744-43D750C53C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D02E66-D43E-4A83-96A4-C72A2BD48F72}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -480,14 +480,15 @@
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="11.90625" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
     <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" customWidth="1"/>
     <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798BDF0-BCB2-4B6E-9744-43D750C53C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E7230-3EF9-466D-803A-5B91C6D14647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -396,21 +396,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -475,23 +475,23 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -586,17 +586,17 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E7230-3EF9-466D-803A-5B91C6D14647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24BB58-0B29-495C-AB56-823723DF7016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
     <sheet name="aggressive_cont" sheetId="2" r:id="rId2"/>
     <sheet name="aggressive_badname" sheetId="3" r:id="rId3"/>
+    <sheet name="input_guidance" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>input_regs</t>
   </si>
@@ -75,14 +76,58 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>soc.north.vpupll</t>
+  </si>
+  <si>
+    <t>Running Environment</t>
+  </si>
+  <si>
+    <t>Targsim</t>
+  </si>
+  <si>
+    <t>Post-Si Platform</t>
+  </si>
+  <si>
+    <t>Pre-Si Platform</t>
+  </si>
+  <si>
+    <t>Recommended input</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE</t>
+  </si>
+  <si>
+    <t>mca_check</t>
+  </si>
+  <si>
+    <t>every_failreg</t>
+  </si>
+  <si>
+    <t>every_10val/every_failreg</t>
+  </si>
+  <si>
+    <t>mca_check (it will be ignore if hang_detection is FALSE)</t>
+  </si>
+  <si>
+    <t>every_10val</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,9 +454,10 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +482,13 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -450,16 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +525,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +542,7 @@
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -517,19 +571,19 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -567,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +637,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,6 +648,7 @@
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -604,19 +659,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,13 +691,112 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEDD8A8-569E-445A-ACF6-90334BB0BE10}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24BB58-0B29-495C-AB56-823723DF7016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED039800-86AB-4E04-AF14-C25C5500820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>auto</t>
   </si>
   <si>
-    <t>soc.north.vpupll</t>
-  </si>
-  <si>
     <t>Running Environment</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>every_10val</t>
+  </si>
+  <si>
+    <t>cdie.atom0.pma_gpsb</t>
   </si>
 </sst>
 </file>
@@ -442,12 +442,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -483,12 +483,12 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -741,12 +741,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -758,41 +758,41 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED039800-86AB-4E04-AF14-C25C5500820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A9547-8CC5-446D-A635-5019079F1543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>input_regs</t>
   </si>
@@ -111,7 +111,10 @@
     <t>every_10val</t>
   </si>
   <si>
-    <t>cdie.atom0.pma_gpsb</t>
+    <t>cdie.atom0.pma_gpsb.pma_cr_gpsb_iosfsb_err_status_sticky</t>
+  </si>
+  <si>
+    <t>soc.north.vpupll</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +491,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEDD8A8-569E-445A-ACF6-90334BB0BE10}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,6 +798,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A9547-8CC5-446D-A635-5019079F1543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5090D6-4F43-4B03-8261-5EE6E9442083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>input_regs</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>cdie.atom0.pma_gpsb.pma_cr_gpsb_iosfsb_err_status_sticky</t>
-  </si>
-  <si>
-    <t>soc.north.vpupll</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +488,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5090D6-4F43-4B03-8261-5EE6E9442083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9279C589-96C8-48BD-B7C9-2DFB429761E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>input_regs</t>
   </si>
@@ -112,13 +112,58 @@
   </si>
   <si>
     <t>cdie.atom0.pma_gpsb.pma_cr_gpsb_iosfsb_err_status_sticky</t>
+  </si>
+  <si>
+    <t>ro/c</t>
+  </si>
+  <si>
+    <t>wo/1</t>
+  </si>
+  <si>
+    <t>wo/c</t>
+  </si>
+  <si>
+    <t>rw/v/p</t>
+  </si>
+  <si>
+    <t>ro/v/p</t>
+  </si>
+  <si>
+    <t>rw/1c/p</t>
+  </si>
+  <si>
+    <t>rw/1s/v</t>
+  </si>
+  <si>
+    <t>rw/o/p</t>
+  </si>
+  <si>
+    <t>rw/o/v/l</t>
+  </si>
+  <si>
+    <t>rw/v2</t>
+  </si>
+  <si>
+    <t>ro/c/v</t>
+  </si>
+  <si>
+    <t>ro/p</t>
+  </si>
+  <si>
+    <t>rw/0c/v</t>
+  </si>
+  <si>
+    <t>rw/p/l</t>
+  </si>
+  <si>
+    <t>soc.south.espi.pmc.oob.mem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +175,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,10 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,8 +549,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -514,6 +576,9 @@
       <c r="I2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D02E66-D43E-4A83-96A4-C72A2BD48F72}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,8 +658,8 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -625,6 +690,71 @@
       </c>
       <c r="M2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9279C589-96C8-48BD-B7C9-2DFB429761E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB651F8-A821-419B-9745-CAA35D481589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,14 +156,14 @@
     <t>rw/p/l</t>
   </si>
   <si>
-    <t>soc.south.espi.pmc.oob.mem</t>
+    <t>cdie.atom0.pma_gpsb.pma_cr_gpsb_iosfsb_err_status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,14 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -215,12 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +495,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +540,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB651F8-A821-419B-9745-CAA35D481589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9965D06-9A99-4308-80B3-BAFEA54E5824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>input_regs</t>
   </si>
@@ -156,7 +156,13 @@
     <t>rw/p/l</t>
   </si>
   <si>
-    <t>cdie.atom0.pma_gpsb.pma_cr_gpsb_iosfsb_err_status</t>
+    <t>ioe</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>rw/cr</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +550,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -566,6 +572,11 @@
       </c>
       <c r="I2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9965D06-9A99-4308-80B3-BAFEA54E5824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EACD81-663F-429B-9248-45B01085578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>input_regs</t>
   </si>
@@ -156,13 +156,13 @@
     <t>rw/p/l</t>
   </si>
   <si>
-    <t>ioe</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>rw/cr</t>
+    <t>soc.south.espi</t>
+  </si>
+  <si>
+    <t>soc.south.spi</t>
+  </si>
+  <si>
+    <t>cdie.atom0</t>
   </si>
 </sst>
 </file>
@@ -501,12 +501,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -550,7 +550,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -575,7 +575,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -592,7 +597,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +844,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EACD81-663F-429B-9248-45B01085578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB5BB8-6D1C-4C39-A74A-BF61D62A279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>input_regs</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>auto_attr</t>
-  </si>
-  <si>
-    <t>is_targsim</t>
   </si>
   <si>
     <t>halt_detection</t>
@@ -498,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,10 +510,11 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -536,55 +534,49 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
     </row>
   </sheetData>
@@ -622,40 +614,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -666,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -696,72 +688,72 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -796,27 +788,27 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -831,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -858,10 +850,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -869,21 +861,21 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -895,46 +887,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB5BB8-6D1C-4C39-A74A-BF61D62A279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2D0A38-EE02-4E07-8587-F29330C51BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>input_regs</t>
-  </si>
-  <si>
-    <t>cdie</t>
   </si>
   <si>
     <t>auto_attr</t>
@@ -166,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -210,11 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,69 +520,60 @@
     <col min="9" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
     </row>
   </sheetData>
@@ -589,7 +586,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,146 +611,152 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -785,30 +788,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -823,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -850,10 +853,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -861,21 +864,21 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -887,46 +890,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2D0A38-EE02-4E07-8587-F29330C51BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B837A3F-6FCD-46AC-84D3-32B083930B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>input_regs</t>
   </si>
@@ -93,21 +93,9 @@
     <t>mca_check</t>
   </si>
   <si>
-    <t>every_failreg</t>
-  </si>
-  <si>
-    <t>every_10val/every_failreg</t>
-  </si>
-  <si>
-    <t>mca_check (it will be ignore if hang_detection is FALSE)</t>
-  </si>
-  <si>
     <t>every_10val</t>
   </si>
   <si>
-    <t>cdie.atom0.pma_gpsb.pma_cr_gpsb_iosfsb_err_status_sticky</t>
-  </si>
-  <si>
     <t>ro/c</t>
   </si>
   <si>
@@ -157,6 +145,30 @@
   </si>
   <si>
     <t>cdie.atom0</t>
+  </si>
+  <si>
+    <t>soc.espi</t>
+  </si>
+  <si>
+    <t>every_10val/every_failreg/FALSE</t>
+  </si>
+  <si>
+    <t>reset_cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halt_detection </t>
+  </si>
+  <si>
+    <t>will detect with itp.ishalted(). If yes, itp.go().</t>
+  </si>
+  <si>
+    <t>will detect for the hang. If yes, will do reboot via ttk3.</t>
+  </si>
+  <si>
+    <t>will detect is the system booting or not, by referring to ttk3 postcode. If yes, will change the reg status to 'sys_rst'.</t>
+  </si>
+  <si>
+    <t>mca_check (it will be ignore or set to FALSE if hang_detection is FALSE)</t>
   </si>
 </sst>
 </file>
@@ -187,9 +199,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,14 +514,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
@@ -547,29 +557,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -578,6 +588,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -591,9 +602,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
@@ -649,13 +660,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -685,78 +696,78 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -775,12 +786,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -836,22 +847,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEDD8A8-569E-445A-ACF6-90334BB0BE10}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -861,7 +872,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -873,10 +884,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -890,10 +904,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -907,29 +924,74 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>25</v>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B837A3F-6FCD-46AC-84D3-32B083930B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A63620-93A4-4FA1-B174-26E8CF3FDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>cdie.atom0</t>
   </si>
   <si>
-    <t>soc.espi</t>
-  </si>
-  <si>
     <t>every_10val/every_failreg/FALSE</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>mca_check (it will be ignore or set to FALSE if hang_detection is FALSE)</t>
+  </si>
+  <si>
+    <t>soc.tcss</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -884,10 +884,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\Personal_folder\limchink\AggressiVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A63620-93A4-4FA1-B174-26E8CF3FDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CFFAC9-3F70-4C58-A55C-FDDAE2B68F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>input_regs</t>
   </si>
@@ -168,7 +168,10 @@
     <t>mca_check (it will be ignore or set to FALSE if hang_detection is FALSE)</t>
   </si>
   <si>
-    <t>soc.tcss</t>
+    <t>every_failreg</t>
+  </si>
+  <si>
+    <t>soc</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,33 +561,88 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,7 +908,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CFFAC9-3F70-4C58-A55C-FDDAE2B68F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F29BF-BB5D-406C-82E7-EFB221A9B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>input_regs</t>
   </si>
@@ -168,17 +168,14 @@
     <t>mca_check (it will be ignore or set to FALSE if hang_detection is FALSE)</t>
   </si>
   <si>
-    <t>every_failreg</t>
-  </si>
-  <si>
-    <t>soc</t>
+    <t>soc.north.pcudata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,12 +194,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,12 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +507,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,10 +551,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -581,8 +571,8 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" s="1"/>
     </row>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F29BF-BB5D-406C-82E7-EFB221A9B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137526F1-8C98-43BC-8553-4B6B83C3DDC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>mca_check (it will be ignore or set to FALSE if hang_detection is FALSE)</t>
   </si>
   <si>
-    <t>soc.north.pcudata</t>
+    <t>soc.pmc.ipc</t>
   </si>
 </sst>
 </file>
@@ -507,23 +507,23 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,24 +549,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -576,62 +576,62 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
   </sheetData>
@@ -648,24 +648,24 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -747,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -755,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -763,57 +763,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>35</v>
       </c>
@@ -831,18 +831,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -901,16 +901,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137526F1-8C98-43BC-8553-4B6B83C3DDC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286FE5FE-74CC-4752-AF08-4BFDEAB7CB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>input_regs</t>
   </si>
@@ -168,7 +168,25 @@
     <t>mca_check (it will be ignore or set to FALSE if hang_detection is FALSE)</t>
   </si>
   <si>
-    <t>soc.pmc.ipc</t>
+    <t>num_val_seq</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>1 or 3</t>
+  </si>
+  <si>
+    <t>we have 3 read-write validation sequences for every single registers. Num_val_seq let user choose how many of this sequence they wanted to run. Only support 1 or 3.</t>
+  </si>
+  <si>
+    <t>soc.north.vpupll</t>
+  </si>
+  <si>
+    <t>FALSE/10/(any number)</t>
+  </si>
+  <si>
+    <t>will randomly choose the registers to validate instead of following the sequence in term of naming. If False, will continue normally. If put any number, AggressiVE will only choose specific number of registers randomly to validate.</t>
   </si>
 </sst>
 </file>
@@ -219,11 +237,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,134 +534,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
   </sheetData>
@@ -648,24 +689,24 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -747,7 +788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -755,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -763,57 +804,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>35</v>
       </c>
@@ -831,18 +872,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -895,22 +936,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEDD8A8-569E-445A-ACF6-90334BB0BE10}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -920,7 +963,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -937,88 +980,118 @@
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1034,12 +1107,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286FE5FE-74CC-4752-AF08-4BFDEAB7CB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385580A0-DA46-47F3-8574-E27981E66BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,8 +613,8 @@
       <c r="I2" s="7">
         <v>3</v>
       </c>
-      <c r="J2" s="4">
-        <v>10</v>
+      <c r="J2" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385580A0-DA46-47F3-8574-E27981E66BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA30FE1-8406-40C2-B480-2084846F6269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -180,13 +180,13 @@
     <t>we have 3 read-write validation sequences for every single registers. Num_val_seq let user choose how many of this sequence they wanted to run. Only support 1 or 3.</t>
   </si>
   <si>
-    <t>soc.north.vpupll</t>
-  </si>
-  <si>
     <t>FALSE/10/(any number)</t>
   </si>
   <si>
     <t>will randomly choose the registers to validate instead of following the sequence in term of naming. If False, will continue normally. If put any number, AggressiVE will only choose specific number of registers randomly to validate.</t>
+  </si>
+  <si>
+    <t>soc.espi.csme.mem</t>
   </si>
 </sst>
 </file>
@@ -537,23 +537,23 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -585,9 +585,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -617,62 +617,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
   </sheetData>
@@ -689,24 +689,24 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -788,7 +788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -796,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -804,57 +804,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>35</v>
       </c>
@@ -872,18 +872,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -942,18 +942,18 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="65.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1010,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1123,12 +1123,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA30FE1-8406-40C2-B480-2084846F6269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DEE2A3-DE73-4299-B3BC-768FB21A3E98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
     <t>will randomly choose the registers to validate instead of following the sequence in term of naming. If False, will continue normally. If put any number, AggressiVE will only choose specific number of registers randomly to validate.</t>
   </si>
   <si>
-    <t>soc.espi.csme.mem</t>
+    <t>soc.pmc.mmr</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="b">
         <v>0</v>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\AggressiVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\Aggressive_developer\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DEE2A3-DE73-4299-B3BC-768FB21A3E98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4D431-9CAA-4152-953C-33EEFE4A9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>input_regs</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>soc.pmc.mmr</t>
+  </si>
+  <si>
+    <t>dfd_en</t>
   </si>
 </sst>
 </file>
@@ -534,26 +537,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -584,8 +587,11 @@
       <c r="J1" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -616,63 +622,66 @@
       <c r="J2" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
     </row>
   </sheetData>
@@ -689,24 +698,24 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -788,7 +797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -796,7 +805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -804,57 +813,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>35</v>
       </c>
@@ -872,18 +881,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -942,18 +951,18 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="65.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -963,7 +972,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -987,7 +996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\Aggressive_developer\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4D431-9CAA-4152-953C-33EEFE4A9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E820D8E-AE94-4222-9328-A51576271F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14025" yWindow="-12120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>input_regs</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>dfd_en</t>
+  </si>
+  <si>
+    <t>post_val</t>
+  </si>
+  <si>
+    <t>pre_rd</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +562,7 @@
     <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -590,8 +596,14 @@
       <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -625,48 +637,54 @@
       <c r="K2" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\Aggressive_developer\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E820D8E-AE94-4222-9328-A51576271F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE5286-EB17-436D-A269-4DD50FC84DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="-12120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>input_regs</t>
   </si>
@@ -186,9 +186,6 @@
     <t>will randomly choose the registers to validate instead of following the sequence in term of naming. If False, will continue normally. If put any number, AggressiVE will only choose specific number of registers randomly to validate.</t>
   </si>
   <si>
-    <t>soc.pmc.mmr</t>
-  </si>
-  <si>
     <t>dfd_en</t>
   </si>
   <si>
@@ -196,6 +193,15 @@
   </si>
   <si>
     <t>pre_rd</t>
+  </si>
+  <si>
+    <t>pcd.tam</t>
+  </si>
+  <si>
+    <t>pcd.taps</t>
+  </si>
+  <si>
+    <t>pcd.tcss</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,9 +261,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -545,13 +548,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
@@ -594,18 +597,18 @@
         <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -628,7 +631,7 @@
       <c r="H2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="b">
@@ -645,10 +648,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\Aggressive_developer\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE5286-EB17-436D-A269-4DD50FC84DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAE8A20-A8EA-4E74-BD49-90BC5526C31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
-    <sheet name="aggressive_cont" sheetId="2" r:id="rId2"/>
-    <sheet name="aggressive_badname" sheetId="3" r:id="rId3"/>
-    <sheet name="input_guidance" sheetId="4" r:id="rId4"/>
+    <sheet name="aggressive_badname" sheetId="3" r:id="rId2"/>
+    <sheet name="input_guidance" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>input_regs</t>
   </si>
@@ -48,21 +47,6 @@
     <t>socket</t>
   </si>
   <si>
-    <t>to_exclude</t>
-  </si>
-  <si>
-    <t>pass_regs</t>
-  </si>
-  <si>
-    <t>fail_regs</t>
-  </si>
-  <si>
-    <t>error_regs</t>
-  </si>
-  <si>
-    <t>hang_regs</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -96,57 +80,6 @@
     <t>every_10val</t>
   </si>
   <si>
-    <t>ro/c</t>
-  </si>
-  <si>
-    <t>wo/1</t>
-  </si>
-  <si>
-    <t>wo/c</t>
-  </si>
-  <si>
-    <t>rw/v/p</t>
-  </si>
-  <si>
-    <t>ro/v/p</t>
-  </si>
-  <si>
-    <t>rw/1c/p</t>
-  </si>
-  <si>
-    <t>rw/1s/v</t>
-  </si>
-  <si>
-    <t>rw/o/p</t>
-  </si>
-  <si>
-    <t>rw/o/v/l</t>
-  </si>
-  <si>
-    <t>rw/v2</t>
-  </si>
-  <si>
-    <t>ro/c/v</t>
-  </si>
-  <si>
-    <t>ro/p</t>
-  </si>
-  <si>
-    <t>rw/0c/v</t>
-  </si>
-  <si>
-    <t>rw/p/l</t>
-  </si>
-  <si>
-    <t>soc.south.espi</t>
-  </si>
-  <si>
-    <t>soc.south.spi</t>
-  </si>
-  <si>
-    <t>cdie.atom0</t>
-  </si>
-  <si>
     <t>every_10val/every_failreg/FALSE</t>
   </si>
   <si>
@@ -195,13 +128,13 @@
     <t>pre_rd</t>
   </si>
   <si>
-    <t>pcd.tam</t>
-  </si>
-  <si>
-    <t>pcd.taps</t>
-  </si>
-  <si>
-    <t>pcd.tcss</t>
+    <t>pcd.tcss.tcss_tbt0.cio_vdr_header_00</t>
+  </si>
+  <si>
+    <t>pcd.taps.dfx_pargpcom1.io_muxing_ctrl</t>
+  </si>
+  <si>
+    <t>pcd.tam.iosf_tam_top.i_map_iosf_tam.mode_sel</t>
   </si>
 </sst>
 </file>
@@ -252,9 +185,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -549,7 +481,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,81 +498,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>54</v>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="b">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="b">
+      <c r="J2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M2">
@@ -648,68 +580,68 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,189 +650,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D02E66-D43E-4A83-96A4-C72A2BD48F72}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7AC8F6-C58B-41AF-9015-A8D8BB77BE51}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -936,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -947,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -962,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEDD8A8-569E-445A-ACF6-90334BB0BE10}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -990,149 +739,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="b">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>48</v>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1140,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1148,23 +897,23 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\Aggressive_developer\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAE8A20-A8EA-4E74-BD49-90BC5526C31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF351FAF-8284-4F80-B00C-41DBF39EBDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggressive" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>input_regs</t>
   </si>
@@ -128,13 +128,7 @@
     <t>pre_rd</t>
   </si>
   <si>
-    <t>pcd.tcss.tcss_tbt0.cio_vdr_header_00</t>
-  </si>
-  <si>
-    <t>pcd.taps.dfx_pargpcom1.io_muxing_ctrl</t>
-  </si>
-  <si>
-    <t>pcd.tam.iosf_tam_top.i_map_iosf_tam.mode_sel</t>
+    <t>hub.pcudata.io_boot_fsm_output_override_en1</t>
   </si>
 </sst>
 </file>
@@ -481,23 +475,23 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -538,9 +532,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -564,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="b">
         <v>0</v>
@@ -579,68 +573,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
@@ -657,18 +647,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -727,18 +717,18 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="65.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="65.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -748,7 +738,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -772,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -798,7 +788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -824,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -850,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -876,7 +866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -884,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -892,7 +882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -900,7 +890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -908,7 +898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>

--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pgcv04a-cifs.png.intel.com\mve_fvpg_001\IVE_CPV\PM Validation\users\limchink_backup\Github\Aggressive_developer\AggressiVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF351FAF-8284-4F80-B00C-41DBF39EBDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F443BA-D419-40A0-A257-5E0941295503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>input_regs</t>
   </si>
@@ -128,7 +128,10 @@
     <t>pre_rd</t>
   </si>
   <si>
-    <t>hub.pcudata.io_boot_fsm_output_override_en1</t>
+    <t>rw/l</t>
+  </si>
+  <si>
+    <t>hub.ioc_0.iop_vmd_regs.vmconfig_0_14_0_pci</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,10 +537,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
